--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\Vizsgaremek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\Vizsgaremek\Dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4DD6A7-519F-4C6B-A612-042F73AE6013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7701B68D-B64C-48BF-A7A7-27FABAD4285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="5415" yWindow="1155" windowWidth="16770" windowHeight="12480" activeTab="3" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>#0055ff</t>
   </si>
@@ -270,13 +270,22 @@
   </si>
   <si>
     <t>50.0.0.28/30</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>DFV_WIFI</t>
+  </si>
+  <si>
+    <t>dfv@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +325,15 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -774,10 +792,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -841,144 +860,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1304,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D835BEC-11F0-4193-810B-6C00DA773C0B}">
   <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1315,11 +1336,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1395,11 +1416,11 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
@@ -1424,216 +1445,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="76"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="76"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="76"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="76"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="76"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="J15" s="76" t="s">
+      <c r="E15" s="50"/>
+      <c r="J15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="76"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="40" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="40" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="47"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
@@ -1643,40 +1664,16 @@
       <c r="E28" s="32"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
@@ -1684,6 +1681,30 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1695,7 +1716,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,20 +1728,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1799,20 +1820,20 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="25" t="s">
@@ -1835,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E59B741-2061-4745-830D-5CC374750031}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,22 +1871,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1889,10 +1910,10 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1904,10 +1925,21 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1915,6 +1947,9 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{18DA9C9D-CA39-46EA-9639-E07F64F4C2D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\Vizsgaremek\Dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7701B68D-B64C-48BF-A7A7-27FABAD4285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A46B66-D924-48C6-BB1A-D4F9A058A446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1155" windowWidth="16770" windowHeight="12480" activeTab="3" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="9420" yWindow="1725" windowWidth="19830" windowHeight="10665" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>#0055ff</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>dfv@1234</t>
+  </si>
+  <si>
+    <t>ISP1</t>
+  </si>
+  <si>
+    <t>Belső hálózat:</t>
+  </si>
+  <si>
+    <t>1.1.1.0/24</t>
+  </si>
+  <si>
+    <t>ISP2</t>
+  </si>
+  <si>
+    <t>2.2.2.0/24</t>
+  </si>
+  <si>
+    <t>Adatközpont</t>
   </si>
 </sst>
 </file>
@@ -796,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -864,6 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,7 +1015,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1336,11 +1357,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1416,11 +1437,11 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
@@ -1443,237 +1464,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
-  <dimension ref="B2:M29"/>
+  <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+      <c r="O3" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="54"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="51"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="49" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="59" t="s">
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="59" t="s">
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="41" t="s">
+      <c r="K12" s="41"/>
+      <c r="O12" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="40" t="s">
+      <c r="K13" s="41"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="s">
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="J15" s="40" t="s">
+      <c r="E15" s="51"/>
+      <c r="J15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="40" t="s">
+      <c r="K15" s="41"/>
+      <c r="O15" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="51"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63" t="s">
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="49" t="s">
+      <c r="C21" s="69"/>
+      <c r="D21" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69" t="s">
+      <c r="E21" s="51"/>
+      <c r="O21" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="49" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="71" t="s">
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="49" t="s">
+      <c r="C25" s="73"/>
+      <c r="D25" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="73" t="s">
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="58"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="41" t="s">
+    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="38">
+    <mergeCell ref="O21:R22"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
@@ -1716,7 +1793,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,20 +1805,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1858,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E59B741-2061-4745-830D-5CC374750031}">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,22 +1948,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,10 +1987,10 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1925,16 +2002,16 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="37" t="s">
         <v>79</v>
       </c>
       <c r="E10" t="s">

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\Vizsgaremek\Dokumentumok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A46B66-D924-48C6-BB1A-D4F9A058A446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED7FD2-436E-4A3F-88B0-0EF3799251FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1725" windowWidth="19830" windowHeight="10665" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>#0055ff</t>
   </si>
@@ -281,22 +281,100 @@
     <t>dfv@1234</t>
   </si>
   <si>
-    <t>ISP1</t>
-  </si>
-  <si>
     <t>Belső hálózat:</t>
   </si>
   <si>
     <t>1.1.1.0/24</t>
   </si>
   <si>
-    <t>ISP2</t>
-  </si>
-  <si>
     <t>2.2.2.0/24</t>
   </si>
   <si>
-    <t>Adatközpont</t>
+    <t>Székesfehérvár IP-címek:</t>
+  </si>
+  <si>
+    <t>1. Épület:</t>
+  </si>
+  <si>
+    <t>192.168.110.0/24</t>
+  </si>
+  <si>
+    <t>2. épület:</t>
+  </si>
+  <si>
+    <t>192.168.120.0/24</t>
+  </si>
+  <si>
+    <t>70.0.0.0/24</t>
+  </si>
+  <si>
+    <t>ISP-től kapott IP-címek:</t>
+  </si>
+  <si>
+    <t>Adatközpont:</t>
+  </si>
+  <si>
+    <t>ISP2:</t>
+  </si>
+  <si>
+    <t>ISP1:</t>
+  </si>
+  <si>
+    <t>10.0.0.0/30</t>
+  </si>
+  <si>
+    <t>10.0.0.4/30</t>
+  </si>
+  <si>
+    <t>10.0.0.8/30</t>
+  </si>
+  <si>
+    <t>10.0.0.12/30</t>
+  </si>
+  <si>
+    <t>VLAN110</t>
+  </si>
+  <si>
+    <t>VLAN120</t>
+  </si>
+  <si>
+    <t>EPULET1</t>
+  </si>
+  <si>
+    <t>EPULET2</t>
+  </si>
+  <si>
+    <t>192.168.110/24</t>
+  </si>
+  <si>
+    <t>192.168.120/24</t>
+  </si>
+  <si>
+    <t>192.168.199.0/24</t>
+  </si>
+  <si>
+    <t>VLAN199</t>
+  </si>
+  <si>
+    <t>Székesfehérvár</t>
+  </si>
+  <si>
+    <t>vtpszekes@12</t>
+  </si>
+  <si>
+    <t>szekes.hu</t>
+  </si>
+  <si>
+    <t>szekeswf12</t>
+  </si>
+  <si>
+    <t>epulet1_wifi</t>
+  </si>
+  <si>
+    <t>epulet2_wifi</t>
+  </si>
+  <si>
+    <t>szekeswf34</t>
   </si>
 </sst>
 </file>
@@ -814,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -892,15 +970,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,103 +1078,34 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1027,6 +1117,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCF0000"/>
       <color rgb="FFFF5500"/>
       <color rgb="FFFF55FF"/>
       <color rgb="FF954ADF"/>
@@ -1347,7 +1438,7 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,71 +1555,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
-  <dimension ref="B2:R29"/>
+  <dimension ref="B2:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-      <c r="O3" s="52" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="O3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="T3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="43"/>
+    </row>
+    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="46"/>
+    </row>
+    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="50" t="s">
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="51"/>
-    </row>
-    <row r="7" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="R6" s="48"/>
+      <c r="U6" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="69"/>
+      <c r="W6" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" s="84"/>
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="58" t="s">
         <v>23</v>
       </c>
@@ -1536,191 +1664,214 @@
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="69"/>
+      <c r="J7" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="60" t="s">
+      <c r="U8" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="V8" s="69"/>
+      <c r="W8" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="84"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="70"/>
+    </row>
+    <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="60" t="s">
+      <c r="K10" s="70"/>
+      <c r="W10" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" s="70"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="O12" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54"/>
-    </row>
-    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="42" t="s">
+      <c r="K12" s="70"/>
+      <c r="O12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
-    </row>
-    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="41" t="s">
+      <c r="K13" s="70"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
+    </row>
+    <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="J15" s="41" t="s">
+      <c r="E15" s="48"/>
+      <c r="J15" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="O15" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="51"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="41" t="s">
+      <c r="K15" s="70"/>
+      <c r="O15" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="48"/>
+    </row>
+    <row r="16" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64" t="s">
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="50" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="51"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="66" t="s">
+      <c r="E17" s="48"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="68" t="s">
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="O21" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
-    </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="70" t="s">
+      <c r="E21" s="48"/>
+      <c r="O21" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
+    </row>
+    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
+    </row>
+    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72" t="s">
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74" t="s">
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="58" t="s">
         <v>63</v>
       </c>
@@ -1728,42 +1879,81 @@
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="43"/>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="42" t="s">
+      <c r="N28" s="44"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="46"/>
+    </row>
+    <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O30" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" s="70"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O31" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" s="70"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O32" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32" s="70"/>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" s="70"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="O21:R22"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+  <mergeCells count="50">
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="N27:S28"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B3:M4"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
@@ -1773,15 +1963,26 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="O21:R22"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1790,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED0460-44A0-4582-9F4F-C5B159C5D766}">
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,20 +2006,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1921,6 +2122,39 @@
       </c>
       <c r="E16" s="27" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1933,37 +2167,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E59B741-2061-4745-830D-5CC374750031}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1987,45 +2221,90 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="86" t="s">
         <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="70"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:G4"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{18DA9C9D-CA39-46EA-9639-E07F64F4C2D0}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{7E2E6D04-0A2D-4D7A-8775-F81951846BB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED7FD2-436E-4A3F-88B0-0EF3799251FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768123D-C9BE-431F-BE02-30586F0C6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
   <si>
     <t>#0055ff</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>szekeswf34</t>
+  </si>
+  <si>
+    <t>R_ISP1A - R_ISP1B:</t>
+  </si>
+  <si>
+    <t>172.16.1.0/30</t>
+  </si>
+  <si>
+    <t>R_ISP2A - R_ISP2B:</t>
+  </si>
+  <si>
+    <t>172.16.2.0/30</t>
   </si>
 </sst>
 </file>
@@ -961,6 +973,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,6 +985,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,14 +1012,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,6 +1033,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,62 +1099,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,18 +1118,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1448,11 +1460,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1528,11 +1540,11 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
@@ -1557,135 +1569,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="O3" s="41" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="O3" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-      <c r="T3" s="41" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="T3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="43"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="47"/>
     </row>
     <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="50"/>
     </row>
     <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49" t="s">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="U6" s="68" t="s">
+      <c r="R6" s="44"/>
+      <c r="U6" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="69"/>
-      <c r="W6" s="83" t="s">
+      <c r="V6" s="52"/>
+      <c r="W6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="84"/>
+      <c r="X6" s="54"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="52"/>
+      <c r="J7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="K7" s="44"/>
+      <c r="O7" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="U8" s="68" t="s">
+      <c r="U8" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="69"/>
-      <c r="W8" s="85" t="s">
+      <c r="V8" s="52"/>
+      <c r="W8" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="84"/>
+      <c r="X8" s="54"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
@@ -1698,22 +1718,22 @@
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="70"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="W10" s="70" t="s">
+      <c r="K10" s="42"/>
+      <c r="W10" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="X10" s="70"/>
+      <c r="X10" s="42"/>
       <c r="Y10" t="s">
         <v>104</v>
       </c>
@@ -1726,225 +1746,251 @@
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="70"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="O12" s="41" t="s">
+      <c r="K12" s="42"/>
+      <c r="O12" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47"/>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
+      <c r="K13" s="42"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="70"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="J15" s="70" t="s">
+      <c r="E15" s="44"/>
+      <c r="J15" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="O15" s="47" t="s">
+      <c r="K15" s="42"/>
+      <c r="O15" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49" t="s">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="48"/>
+      <c r="R15" s="44"/>
     </row>
     <row r="16" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="70"/>
+      <c r="K16" s="42"/>
+      <c r="O16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" s="44"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="O21" s="41" t="s">
+      <c r="E21" s="44"/>
+      <c r="O21" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="48"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="47"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O30" s="70" t="s">
+      <c r="O30" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="P30" s="70"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O31" s="70" t="s">
+      <c r="O31" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="P31" s="70"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O32" s="70" t="s">
+      <c r="O32" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="P32" s="70"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O33" s="70" t="s">
+      <c r="O33" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="70"/>
+      <c r="P33" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="N27:S28"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
+  <mergeCells count="54">
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="D13:E13"/>
@@ -1954,35 +2000,21 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="N27:S28"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
     <mergeCell ref="O21:R22"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2006,20 +2038,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2169,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E59B741-2061-4745-830D-5CC374750031}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2182,22 +2214,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2221,10 +2253,10 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -2236,16 +2268,16 @@
       <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="38" t="s">
         <v>79</v>
       </c>
       <c r="E10" t="s">
@@ -2262,10 +2294,10 @@
       <c r="D12" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768123D-C9BE-431F-BE02-30586F0C6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99BBF1-42BC-4668-95C5-9EADE825EE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="22800" yWindow="4350" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -985,122 +985,122 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -1577,434 +1577,390 @@
   <sheetData>
     <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="O3" s="45" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="O3" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="T3" s="45" t="s">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="T3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="44"/>
     </row>
     <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="50"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="47"/>
     </row>
     <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="80" t="s">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="U6" s="51" t="s">
+      <c r="R6" s="49"/>
+      <c r="U6" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53" t="s">
+      <c r="V6" s="70"/>
+      <c r="W6" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="54"/>
+      <c r="X6" s="79"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="43" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="O7" s="43" t="s">
+      <c r="K7" s="49"/>
+      <c r="O7" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="43" t="s">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="44"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="55" t="s">
+      <c r="V8" s="70"/>
+      <c r="W8" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="54"/>
+      <c r="X8" s="79"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="42"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="W10" s="42" t="s">
+      <c r="K10" s="71"/>
+      <c r="W10" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="X10" s="42"/>
+      <c r="X10" s="71"/>
       <c r="Y10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="42"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="O12" s="45" t="s">
+      <c r="K12" s="71"/>
+      <c r="O12" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
+      <c r="K13" s="71"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="47"/>
     </row>
     <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="42"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="J15" s="42" t="s">
+      <c r="E15" s="49"/>
+      <c r="J15" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="O15" s="43" t="s">
+      <c r="K15" s="71"/>
+      <c r="O15" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="80" t="s">
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="44"/>
+      <c r="R15" s="49"/>
     </row>
     <row r="16" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="O16" s="43" t="s">
+      <c r="K16" s="71"/>
+      <c r="O16" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="43" t="s">
+      <c r="P16" s="49"/>
+      <c r="Q16" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="44"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="O21" s="45" t="s">
+      <c r="E21" s="49"/>
+      <c r="O21" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="47"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="43" t="s">
+      <c r="O24" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="44"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="43" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="64" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="N27" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="47"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="44"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="50"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="47"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O30" s="42" t="s">
+      <c r="O30" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="P30" s="42"/>
+      <c r="P30" s="71"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O31" s="42" t="s">
+      <c r="O31" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="P31" s="42"/>
+      <c r="P31" s="71"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O32" s="42" t="s">
+      <c r="O32" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="P32" s="42"/>
+      <c r="P32" s="71"/>
     </row>
     <row r="33" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O33" s="42" t="s">
+      <c r="O33" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="42"/>
+      <c r="P33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="W10:X10"/>
@@ -2015,6 +1971,50 @@
     <mergeCell ref="O21:R22"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2038,20 +2038,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2253,10 +2253,10 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -2268,10 +2268,10 @@
       <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -2294,10 +2294,10 @@
       <c r="D12" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99BBF1-42BC-4668-95C5-9EADE825EE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8197F731-E993-4718-9BBE-C15C68B00518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="4350" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="-23172" yWindow="0" windowWidth="17280" windowHeight="9036" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>#0055ff</t>
   </si>
@@ -387,6 +387,51 @@
   </si>
   <si>
     <t>172.16.2.0/30</t>
+  </si>
+  <si>
+    <t>#befff7</t>
+  </si>
+  <si>
+    <t>#fffbbd</t>
+  </si>
+  <si>
+    <t>Budapest épület színek:</t>
+  </si>
+  <si>
+    <t>Raktár:</t>
+  </si>
+  <si>
+    <t>10.0.0.16/30</t>
+  </si>
+  <si>
+    <t>10.0.0.20/30</t>
+  </si>
+  <si>
+    <t>Budapest IP-címek:</t>
+  </si>
+  <si>
+    <t>172.16.10.0/24</t>
+  </si>
+  <si>
+    <t>172.16.20.0/24</t>
+  </si>
+  <si>
+    <t>R_BUDA1 - R_BUDA2:</t>
+  </si>
+  <si>
+    <t>100.100.100.0/30</t>
+  </si>
+  <si>
+    <t>RAKTAR</t>
+  </si>
+  <si>
+    <t>IRODAHAZ</t>
+  </si>
+  <si>
+    <t>10.0.0.24/30</t>
+  </si>
+  <si>
+    <t>10.0.0.28/30</t>
   </si>
 </sst>
 </file>
@@ -904,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1118,6 +1163,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1450,12 +1514,14 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1465,6 +1531,11 @@
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="41"/>
+      <c r="F2" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1474,8 +1545,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1483,6 +1561,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1557,9 +1642,10 @@
       <c r="D13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1567,16 +1653,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
-  <dimension ref="B2:AE33"/>
+  <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>47</v>
       </c>
@@ -1611,8 +1697,20 @@
       <c r="AC3" s="43"/>
       <c r="AD3" s="43"/>
       <c r="AE3" s="44"/>
-    </row>
-    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG3" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+    </row>
+    <row r="4" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -1641,9 +1739,19 @@
       <c r="AC4" s="46"/>
       <c r="AD4" s="46"/>
       <c r="AE4" s="47"/>
-    </row>
-    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="47"/>
+    </row>
+    <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O6" s="48" t="s">
         <v>80</v>
       </c>
@@ -1663,8 +1771,16 @@
       <c r="Y6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="2:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH6" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK6" s="49"/>
+    </row>
+    <row r="7" spans="2:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="72" t="s">
         <v>48</v>
       </c>
@@ -1693,7 +1809,7 @@
       </c>
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74"/>
       <c r="C8" s="75"/>
       <c r="D8" s="28"/>
@@ -1709,8 +1825,16 @@
       <c r="Y8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH8" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK8" s="49"/>
+    </row>
+    <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="67" t="s">
         <v>24</v>
       </c>
@@ -1723,7 +1847,7 @@
       </c>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="J10" s="71" t="s">
@@ -1737,8 +1861,17 @@
       <c r="Y10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL10" s="49"/>
+    </row>
+    <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="67" t="s">
         <v>34</v>
       </c>
@@ -1751,7 +1884,7 @@
       </c>
       <c r="K11" s="71"/>
     </row>
-    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="J12" s="71" t="s">
@@ -1765,7 +1898,7 @@
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
     </row>
-    <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="51" t="s">
         <v>64</v>
       </c>
@@ -1782,13 +1915,13 @@
       <c r="Q13" s="46"/>
       <c r="R13" s="47"/>
     </row>
-    <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="71" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="71"/>
     </row>
-    <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="76" t="s">
         <v>50</v>
       </c>
@@ -1810,7 +1943,7 @@
       </c>
       <c r="R15" s="49"/>
     </row>
-    <row r="16" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="71" t="s">
         <v>76</v>
       </c>
@@ -1959,8 +2092,43 @@
       </c>
       <c r="P33" s="71"/>
     </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="71"/>
+    </row>
+    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O35" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="71"/>
+    </row>
+    <row r="36" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" s="71"/>
+    </row>
+    <row r="37" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O37" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="65">
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="AG3:AP4"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="W10:X10"/>
@@ -2023,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED0460-44A0-4582-9F4F-C5B159C5D766}">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,10 +2202,12 @@
     <col min="2" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
         <v>26</v>
       </c>
@@ -2046,15 +2216,15 @@
       <c r="E2" s="43"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
@@ -2075,13 +2245,23 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -2091,13 +2271,23 @@
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="95"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
@@ -2108,12 +2298,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="s">
         <v>32</v>
       </c>
@@ -2124,12 +2314,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
@@ -2140,12 +2330,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="25" t="s">
         <v>67</v>
       </c>
@@ -2156,42 +2346,55 @@
         <v>63</v>
       </c>
     </row>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C18" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="93" t="s">
         <v>101</v>
       </c>
     </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="4"/>
+    </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:F3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8197F731-E993-4718-9BBE-C15C68B00518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA92603-67B9-4788-8F99-7438D33F23A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23172" yWindow="0" windowWidth="17280" windowHeight="9036" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>#0055ff</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>10.0.0.28/30</t>
+  </si>
+  <si>
+    <t>VoIP:</t>
+  </si>
+  <si>
+    <t>192.168.100.0/24</t>
+  </si>
+  <si>
+    <t>VLAN100</t>
+  </si>
+  <si>
+    <t>VOICE</t>
   </si>
 </sst>
 </file>
@@ -1021,163 +1033,165 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,16 +1540,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="F2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1548,7 +1562,7 @@
       <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" t="s">
         <v>116</v>
       </c>
       <c r="H3" s="4"/>
@@ -1625,11 +1639,11 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
@@ -1655,469 +1669,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="O3" s="42" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="O3" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
-      <c r="T3" s="42" t="s">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48"/>
+      <c r="T3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="44"/>
-      <c r="AG3" s="42" t="s">
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="48"/>
+      <c r="AG3" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="48"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="47"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="51"/>
     </row>
     <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="R6" s="55"/>
+      <c r="U6" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="70"/>
-      <c r="W6" s="78" t="s">
+      <c r="V6" s="58"/>
+      <c r="W6" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="79"/>
+      <c r="X6" s="60"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
-      <c r="AH6" s="88" t="s">
+      <c r="AH6" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="48" t="s">
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="49"/>
+      <c r="AK6" s="55"/>
     </row>
     <row r="7" spans="2:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="O7" s="48" t="s">
+      <c r="K7" s="55"/>
+      <c r="O7" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="48" t="s">
+      <c r="P7" s="55"/>
+      <c r="Q7" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="49"/>
+      <c r="R7" s="55"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="70"/>
-      <c r="W8" s="80" t="s">
+      <c r="V8" s="58"/>
+      <c r="W8" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="79"/>
+      <c r="X8" s="60"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
-      <c r="AH8" s="88" t="s">
+      <c r="AH8" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="48" t="s">
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="AK8" s="49"/>
+      <c r="AK8" s="55"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="71"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="W10" s="71" t="s">
+      <c r="K10" s="45"/>
+      <c r="W10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="X10" s="71"/>
+      <c r="X10" s="45"/>
       <c r="Y10" t="s">
         <v>104</v>
       </c>
-      <c r="AH10" s="88" t="s">
+      <c r="AH10" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="48" t="s">
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="AL10" s="49"/>
+      <c r="AL10" s="55"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="71"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="O12" s="42" t="s">
+      <c r="K12" s="45"/>
+      <c r="O12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
+      <c r="AH12" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI12" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="71"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="47"/>
+      <c r="K13" s="45"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="71"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="J15" s="71" t="s">
+      <c r="E15" s="55"/>
+      <c r="J15" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="71"/>
-      <c r="O15" s="48" t="s">
+      <c r="K15" s="45"/>
+      <c r="O15" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50" t="s">
+      <c r="P15" s="55"/>
+      <c r="Q15" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="49"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="71"/>
-      <c r="O16" s="48" t="s">
+      <c r="K16" s="45"/>
+      <c r="O16" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="48" t="s">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="49"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="48" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="O21" s="42" t="s">
+      <c r="E21" s="55"/>
+      <c r="O21" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="48" t="s">
+      <c r="O24" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="49"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="83"/>
+      <c r="D25" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59" t="s">
+      <c r="C27" s="85"/>
+      <c r="D27" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="44"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="48"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="47"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="52"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O30" s="71" t="s">
+      <c r="O30" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="P30" s="71"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="P31" s="71"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O32" s="71" t="s">
+      <c r="O32" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="P32" s="71"/>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="71"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O34" s="71" t="s">
+      <c r="O34" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="P34" s="71"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O35" s="71" t="s">
+      <c r="O35" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="P35" s="71"/>
+      <c r="P35" s="45"/>
     </row>
     <row r="36" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O36" s="71" t="s">
+      <c r="O36" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="P36" s="71"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="P37" s="71"/>
+      <c r="P37" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O21:R22"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="O34:P34"/>
@@ -2134,55 +2205,6 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="N27:S28"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O21:R22"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2193,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED0460-44A0-4582-9F4F-C5B159C5D766}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,20 +2230,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2251,10 +2273,10 @@
       <c r="I6" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="71"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -2271,16 +2293,16 @@
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="95"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
@@ -2297,6 +2319,16 @@
       <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="H10" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -2348,26 +2380,25 @@
     </row>
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="41" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
-      <c r="D19" s="87"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2376,7 +2407,6 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
-      <c r="D21" s="87"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,10 +2421,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2417,22 +2448,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2456,10 +2487,10 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -2471,10 +2502,10 @@
       <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -2497,10 +2528,10 @@
       <c r="D12" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA92603-67B9-4788-8F99-7438D33F23A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF7117-E929-4EB8-9E29-DD94BD6DD87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>#0055ff</t>
   </si>
@@ -444,6 +444,39 @@
   </si>
   <si>
     <t>VOICE</t>
+  </si>
+  <si>
+    <t>50.0.0.32/30</t>
+  </si>
+  <si>
+    <t>R_IRODA1-R_IRODA2:</t>
+  </si>
+  <si>
+    <t>70.70.0.0/30</t>
+  </si>
+  <si>
+    <t>192.168.200.0</t>
+  </si>
+  <si>
+    <t>50.0.0.36/30</t>
+  </si>
+  <si>
+    <t>LOGISZTIKA1-2:</t>
+  </si>
+  <si>
+    <t>192.168.15.8/29</t>
+  </si>
+  <si>
+    <t>192.168.15.16/29</t>
+  </si>
+  <si>
+    <t>192.168.150.0/29</t>
+  </si>
+  <si>
+    <t>R_SZEKES1-2:</t>
+  </si>
+  <si>
+    <t>172.16.250.0/28</t>
   </si>
 </sst>
 </file>
@@ -505,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,8 +605,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -946,6 +985,21 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -961,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1033,9 +1087,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,12 +1152,87 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,79 +1242,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,15 +1267,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1517,7 +1588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1540,16 +1611,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="F2" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1639,11 +1710,11 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="K12" t="s">
         <v>16</v>
       </c>
@@ -1669,136 +1740,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="O3" s="46" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="T3" s="46" t="s">
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="T3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="48"/>
-      <c r="AG3" s="46" t="s">
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AG3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="48"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="59"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="51"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="51"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="51"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="62"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="62"/>
     </row>
     <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="86" t="s">
+      <c r="P6" s="66"/>
+      <c r="Q6" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="55"/>
-      <c r="U6" s="57" t="s">
+      <c r="R6" s="66"/>
+      <c r="U6" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="59" t="s">
+      <c r="V6" s="75"/>
+      <c r="W6" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="60"/>
+      <c r="X6" s="96"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
-      <c r="AH6" s="52" t="s">
+      <c r="AH6" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="54" t="s">
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="55"/>
+      <c r="AK6" s="66"/>
     </row>
     <row r="7" spans="2:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="70" t="s">
         <v>23</v>
       </c>
@@ -1806,47 +1880,47 @@
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="54" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="O7" s="54" t="s">
+      <c r="K7" s="66"/>
+      <c r="O7" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="54" t="s">
+      <c r="P7" s="66"/>
+      <c r="Q7" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="55"/>
+      <c r="R7" s="66"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="U8" s="57" t="s">
+      <c r="U8" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="58"/>
-      <c r="W8" s="61" t="s">
+      <c r="V8" s="75"/>
+      <c r="W8" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="60"/>
+      <c r="X8" s="96"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
-      <c r="AH8" s="52" t="s">
+      <c r="AH8" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54" t="s">
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="AK8" s="55"/>
+      <c r="AK8" s="66"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="72" t="s">
@@ -1856,34 +1930,34 @@
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="W10" s="45" t="s">
+      <c r="K10" s="56"/>
+      <c r="W10" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="X10" s="45"/>
+      <c r="X10" s="56"/>
       <c r="Y10" t="s">
         <v>104</v>
       </c>
-      <c r="AH10" s="52" t="s">
+      <c r="AH10" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="54" t="s">
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AL10" s="55"/>
+      <c r="AL10" s="66"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="72" t="s">
@@ -1893,167 +1967,208 @@
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="O12" s="46" t="s">
+      <c r="K12" s="56"/>
+      <c r="O12" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
-      <c r="AH12" s="93" t="s">
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="U12" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="V12" s="66"/>
+      <c r="W12" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" s="66"/>
+      <c r="AH12" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AI12" s="54" t="s">
+      <c r="AI12" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="55"/>
+      <c r="AJ12" s="66"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="63"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="51"/>
+      <c r="K13" s="56"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="56"/>
+      <c r="W14" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" s="56"/>
+      <c r="AJ14" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK14" s="56"/>
     </row>
     <row r="15" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="69"/>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="J15" s="45" t="s">
+      <c r="E15" s="66"/>
+      <c r="J15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="O15" s="54" t="s">
+      <c r="K15" s="56"/>
+      <c r="O15" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="86" t="s">
+      <c r="P15" s="66"/>
+      <c r="Q15" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="55"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="O16" s="54" t="s">
+      <c r="K16" s="56"/>
+      <c r="O16" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="54" t="s">
+      <c r="P16" s="66"/>
+      <c r="Q16" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="55"/>
+      <c r="R16" s="66"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E17" s="66"/>
+      <c r="H17" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="56"/>
+    </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="85"/>
+      <c r="D21" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="O21" s="46" t="s">
+      <c r="E21" s="66"/>
+      <c r="O21" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="48"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="59"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="55"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="54" t="s">
+      <c r="O24" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="55"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="89"/>
+      <c r="D25" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="O25" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="66"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="85"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="70" t="s">
         <v>63</v>
       </c>
@@ -2061,94 +2176,112 @@
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="46" t="s">
+      <c r="N27" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="59"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="62"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="63"/>
+      <c r="D29" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="94"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="P30" s="45"/>
+      <c r="P30" s="56"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="P31" s="45"/>
+      <c r="P31" s="56"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="P32" s="45"/>
+      <c r="P32" s="56"/>
     </row>
     <row r="33" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="45"/>
+      <c r="P33" s="56"/>
     </row>
     <row r="34" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="P34" s="45"/>
+      <c r="P34" s="56"/>
     </row>
     <row r="35" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="P35" s="45"/>
+      <c r="P35" s="56"/>
     </row>
     <row r="36" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="P36" s="45"/>
+      <c r="P36" s="56"/>
     </row>
     <row r="37" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O37" s="45" t="s">
+      <c r="O37" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="P37" s="45"/>
+      <c r="P37" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="76">
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="O3:R4"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="O12:R13"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B25:C25"/>
@@ -2170,20 +2303,12 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="O21:R22"/>
@@ -2215,35 +2340,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED0460-44A0-4582-9F4F-C5B159C5D766}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2267,21 +2392,25 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="45"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
@@ -2293,23 +2422,27 @@
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="45"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
@@ -2319,16 +2452,16 @@
       <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="95"/>
+      <c r="K10" s="94"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -2380,43 +2513,45 @@
     </row>
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="46" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="43" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="49" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2448,22 +2583,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2487,10 +2622,10 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
@@ -2502,10 +2637,10 @@
       <c r="D8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -2528,10 +2663,10 @@
       <c r="D12" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF7117-E929-4EB8-9E29-DD94BD6DD87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93787A8A-2518-4165-BBCB-674000541C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>#0055ff</t>
   </si>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>172.16.250.0/28</t>
+  </si>
+  <si>
+    <t>2001:2222:B::/64</t>
+  </si>
+  <si>
+    <t>2010:2010:A::/64</t>
+  </si>
+  <si>
+    <t>2020:2020:B::/64</t>
+  </si>
+  <si>
+    <t>7070:AAAA::/64</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1119,6 +1131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,111 +1155,105 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,6 +1279,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1740,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,182 +1769,192 @@
   <sheetData>
     <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="O3" s="57" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="T3" s="57" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="T3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AG3" s="57" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AG3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="61"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="62"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="64"/>
     </row>
     <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="92" t="s">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="66"/>
-      <c r="U6" s="74" t="s">
+      <c r="R6" s="58"/>
+      <c r="U6" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="95" t="s">
+      <c r="V6" s="67"/>
+      <c r="W6" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="96"/>
+      <c r="X6" s="69"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
-      <c r="AH6" s="63" t="s">
+      <c r="AA6" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB6" s="58"/>
+      <c r="AH6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="65" t="s">
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="66"/>
+      <c r="AK6" s="58"/>
     </row>
     <row r="7" spans="2:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="65" t="s">
+      <c r="I7" s="67"/>
+      <c r="J7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="O7" s="65" t="s">
+      <c r="K7" s="58"/>
+      <c r="O7" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="65" t="s">
+      <c r="P7" s="58"/>
+      <c r="Q7" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="66"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="U8" s="74" t="s">
+      <c r="Q8" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="107"/>
+      <c r="U8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="75"/>
-      <c r="W8" s="97" t="s">
+      <c r="V8" s="67"/>
+      <c r="W8" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="96"/>
+      <c r="X8" s="69"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
-      <c r="AH8" s="63" t="s">
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AH8" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="65" t="s">
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="AK8" s="66"/>
+      <c r="AK8" s="58"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
@@ -1949,21 +1977,21 @@
       <c r="Y10" t="s">
         <v>104</v>
       </c>
-      <c r="AH10" s="63" t="s">
+      <c r="AH10" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="65" t="s">
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="AL10" s="66"/>
+      <c r="AL10" s="58"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
@@ -1979,33 +2007,33 @@
         <v>72</v>
       </c>
       <c r="K12" s="56"/>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
-      <c r="U12" s="65" t="s">
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
+      <c r="U12" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="V12" s="66"/>
-      <c r="W12" s="65" t="s">
+      <c r="V12" s="58"/>
+      <c r="W12" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="X12" s="66"/>
+      <c r="X12" s="58"/>
       <c r="AH12" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AI12" s="65" t="s">
+      <c r="AI12" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="66"/>
+      <c r="AJ12" s="58"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="94"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
@@ -2013,10 +2041,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="56"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
     </row>
     <row r="14" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="56" t="s">
@@ -2033,50 +2061,50 @@
       <c r="AK14" s="56"/>
     </row>
     <row r="15" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="65" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="58"/>
       <c r="J15" s="56" t="s">
         <v>75</v>
       </c>
       <c r="K15" s="56"/>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="92" t="s">
+      <c r="P15" s="58"/>
+      <c r="Q15" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="66"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="56" t="s">
         <v>76</v>
       </c>
       <c r="K16" s="56"/>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="65" t="s">
+      <c r="P16" s="58"/>
+      <c r="Q16" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="66"/>
+      <c r="R16" s="58"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="65" t="s">
+      <c r="C17" s="82"/>
+      <c r="D17" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="58"/>
       <c r="H17" s="56" t="s">
         <v>136</v>
       </c>
@@ -2085,6 +2113,10 @@
         <v>135</v>
       </c>
       <c r="K17" s="56"/>
+      <c r="Q17" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="R17" s="107"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="56" t="s">
@@ -2097,109 +2129,113 @@
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="65" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="65" t="s">
+      <c r="C21" s="86"/>
+      <c r="D21" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="O21" s="57" t="s">
+      <c r="E21" s="58"/>
+      <c r="O21" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="61"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="64"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="65" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="66"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="66"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="R24" s="56"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="65" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="65" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="O25" s="65" t="s">
+      <c r="G25" s="58"/>
+      <c r="O25" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="66"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="70" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="59"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="61"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="64"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
@@ -2253,67 +2289,7 @@
       <c r="P37" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O21:R22"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
+  <mergeCells count="81">
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="O34:P34"/>
@@ -2330,6 +2306,71 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="N27:S28"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O21:R22"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AI12:AJ12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2355,20 +2396,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2442,7 @@
       <c r="J6" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="71"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -2431,7 +2472,7 @@
       <c r="J8" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="73"/>
+      <c r="K8" s="88"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
@@ -2461,7 +2502,7 @@
       <c r="J10" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="94"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93787A8A-2518-4165-BBCB-674000541C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF7694-2F85-4B1E-AC0C-34DE406AF60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="152">
   <si>
     <t>#0055ff</t>
   </si>
@@ -489,13 +489,19 @@
   </si>
   <si>
     <t>7070:AAAA::/64</t>
+  </si>
+  <si>
+    <t>2001:200:B::/64</t>
+  </si>
+  <si>
+    <t>2010:2010:B::/64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +550,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1131,160 +1144,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1758,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,192 +1782,188 @@
   <sheetData>
     <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="O3" s="59" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="O3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="T3" s="59" t="s">
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="T3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AG3" s="59" t="s">
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AG3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="61"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="59"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="64"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="62"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="62"/>
     </row>
     <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="65" t="s">
+      <c r="P6" s="66"/>
+      <c r="Q6" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="U6" s="66" t="s">
+      <c r="R6" s="66"/>
+      <c r="U6" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="67"/>
-      <c r="W6" s="68" t="s">
+      <c r="V6" s="77"/>
+      <c r="W6" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="69"/>
+      <c r="X6" s="98"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB6" s="58"/>
-      <c r="AH6" s="95" t="s">
+      <c r="AH6" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="57" t="s">
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="58"/>
+      <c r="AK6" s="66"/>
     </row>
     <row r="7" spans="2:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="79" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="77"/>
+      <c r="J7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="O7" s="57" t="s">
+      <c r="K7" s="66"/>
+      <c r="O7" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="57" t="s">
+      <c r="P7" s="66"/>
+      <c r="Q7" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="58"/>
+      <c r="R7" s="66"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="R8" s="107"/>
-      <c r="U8" s="66" t="s">
+      <c r="R8" s="68"/>
+      <c r="U8" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="67"/>
-      <c r="W8" s="70" t="s">
+      <c r="V8" s="77"/>
+      <c r="W8" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="69"/>
+      <c r="X8" s="98"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
       <c r="AA8" s="56"/>
       <c r="AB8" s="56"/>
-      <c r="AH8" s="95" t="s">
+      <c r="AH8" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="57" t="s">
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="AK8" s="58"/>
+      <c r="AK8" s="66"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
@@ -1962,6 +1971,9 @@
         <v>69</v>
       </c>
       <c r="K9" s="56"/>
+      <c r="Q9" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="10" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="28"/>
@@ -1977,21 +1989,25 @@
       <c r="Y10" t="s">
         <v>104</v>
       </c>
-      <c r="AH10" s="95" t="s">
+      <c r="AA10" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB10" s="66"/>
+      <c r="AH10" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="57" t="s">
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AL10" s="58"/>
+      <c r="AL10" s="66"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
@@ -2007,33 +2023,37 @@
         <v>72</v>
       </c>
       <c r="K12" s="56"/>
-      <c r="O12" s="59" t="s">
+      <c r="O12" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
-      <c r="U12" s="57" t="s">
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="U12" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="V12" s="58"/>
-      <c r="W12" s="57" t="s">
+      <c r="V12" s="66"/>
+      <c r="W12" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="X12" s="58"/>
+      <c r="X12" s="66"/>
+      <c r="AA12" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB12" s="66"/>
       <c r="AH12" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AI12" s="57" t="s">
+      <c r="AI12" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="58"/>
+      <c r="AJ12" s="66"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
@@ -2041,10 +2061,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="56"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="56" t="s">
@@ -2061,50 +2081,50 @@
       <c r="AK14" s="56"/>
     </row>
     <row r="15" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="66"/>
       <c r="J15" s="56" t="s">
         <v>75</v>
       </c>
       <c r="K15" s="56"/>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="65" t="s">
+      <c r="P15" s="66"/>
+      <c r="Q15" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="58"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="56" t="s">
         <v>76</v>
       </c>
       <c r="K16" s="56"/>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="57" t="s">
+      <c r="P16" s="66"/>
+      <c r="Q16" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="58"/>
+      <c r="R16" s="66"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="57" t="s">
+      <c r="C17" s="83"/>
+      <c r="D17" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="66"/>
       <c r="H17" s="56" t="s">
         <v>136</v>
       </c>
@@ -2113,10 +2133,10 @@
         <v>135</v>
       </c>
       <c r="K17" s="56"/>
-      <c r="Q17" s="107" t="s">
+      <c r="Q17" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="R17" s="107"/>
+      <c r="R17" s="68"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="56" t="s">
@@ -2129,113 +2149,113 @@
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="57" t="s">
+      <c r="C19" s="85"/>
+      <c r="D19" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="87"/>
+      <c r="D21" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="O21" s="59" t="s">
+      <c r="E21" s="66"/>
+      <c r="O21" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="61"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="59"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="57" t="s">
+      <c r="C23" s="89"/>
+      <c r="D23" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="57" t="s">
+      <c r="O24" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="108" t="s">
+      <c r="P24" s="66"/>
+      <c r="Q24" s="69" t="s">
         <v>149</v>
       </c>
       <c r="R24" s="56"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="57" t="s">
+      <c r="C25" s="91"/>
+      <c r="D25" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="57" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="O25" s="57" t="s">
+      <c r="G25" s="66"/>
+      <c r="O25" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="58"/>
+      <c r="P25" s="66"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="61"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="59"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="64"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="62"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +2309,73 @@
       <c r="P37" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="82">
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O21:R22"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="O34:P34"/>
@@ -2306,72 +2392,8 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="N27:S28"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O21:R22"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AI12:AJ12"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2396,20 +2418,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2439,10 +2461,10 @@
       <c r="I6" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -2469,10 +2491,10 @@
       <c r="I8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="88"/>
+      <c r="K8" s="75"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
@@ -2499,10 +2521,10 @@
       <c r="I10" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="72"/>
+      <c r="K10" s="96"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -2624,22 +2646,22 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Vizsgaremek_IPk,VLANok.xlsx
+++ b/Vizsgaremek_IPk,VLANok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leven\Desktop\GitHub\VizsgaremekCsapat2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\VizsgaremekCsapat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF7694-2F85-4B1E-AC0C-34DE406AF60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A69FC0-72C7-446A-8710-9558501EB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9314BD3E-6A54-4CE4-9518-07F277740BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Szinek" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
   <si>
     <t>#0055ff</t>
   </si>
@@ -495,6 +494,33 @@
   </si>
   <si>
     <t>2010:2010:B::/64</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>vajdaadmin</t>
+  </si>
+  <si>
+    <t>vajda1234</t>
+  </si>
+  <si>
+    <t>Mindenhol</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Isakmp</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>vajdavpnpa55</t>
   </si>
 </sst>
 </file>
@@ -1144,6 +1170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,26 +1194,92 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,89 +1287,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1619,7 +1645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1629,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D835BEC-11F0-4193-810B-6C00DA773C0B}">
   <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8310CD62-0451-41AD-9D03-C8EDE9F552C0}">
   <dimension ref="B2:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,188 +1808,188 @@
   <sheetData>
     <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="O3" s="57" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="T3" s="57" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="T3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AG3" s="57" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AG3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="61"/>
     </row>
     <row r="4" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="62"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="64"/>
     </row>
     <row r="5" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="94" t="s">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="R6" s="58"/>
+      <c r="U6" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="77"/>
-      <c r="W6" s="97" t="s">
+      <c r="V6" s="67"/>
+      <c r="W6" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="X6" s="98"/>
+      <c r="X6" s="69"/>
       <c r="Y6" t="s">
         <v>97</v>
       </c>
-      <c r="AH6" s="63" t="s">
+      <c r="AH6" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="65" t="s">
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="66"/>
+      <c r="AK6" s="58"/>
     </row>
     <row r="7" spans="2:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="65" t="s">
+      <c r="I7" s="67"/>
+      <c r="J7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="O7" s="65" t="s">
+      <c r="K7" s="58"/>
+      <c r="O7" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="65" t="s">
+      <c r="P7" s="58"/>
+      <c r="Q7" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="66"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="Q8" s="68" t="s">
+      <c r="Q8" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="R8" s="68"/>
-      <c r="U8" s="76" t="s">
+      <c r="R8" s="73"/>
+      <c r="U8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="77"/>
-      <c r="W8" s="99" t="s">
+      <c r="V8" s="67"/>
+      <c r="W8" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="98"/>
+      <c r="X8" s="69"/>
       <c r="Y8" t="s">
         <v>98</v>
       </c>
       <c r="AA8" s="56"/>
       <c r="AB8" s="56"/>
-      <c r="AH8" s="63" t="s">
+      <c r="AH8" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="65" t="s">
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="AK8" s="66"/>
+      <c r="AK8" s="58"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
@@ -1989,25 +2015,25 @@
       <c r="Y10" t="s">
         <v>104</v>
       </c>
-      <c r="AA10" s="65" t="s">
+      <c r="AA10" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AB10" s="66"/>
-      <c r="AH10" s="63" t="s">
+      <c r="AB10" s="58"/>
+      <c r="AH10" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="65" t="s">
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="AL10" s="66"/>
+      <c r="AL10" s="58"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="30" t="s">
         <v>32</v>
       </c>
@@ -2023,37 +2049,37 @@
         <v>72</v>
       </c>
       <c r="K12" s="56"/>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
-      <c r="U12" s="65" t="s">
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
+      <c r="U12" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="V12" s="66"/>
-      <c r="W12" s="65" t="s">
+      <c r="V12" s="58"/>
+      <c r="W12" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="X12" s="66"/>
-      <c r="AA12" s="65" t="s">
+      <c r="X12" s="58"/>
+      <c r="AA12" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AB12" s="66"/>
+      <c r="AB12" s="58"/>
       <c r="AH12" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AI12" s="65" t="s">
+      <c r="AI12" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="66"/>
+      <c r="AJ12" s="58"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
@@ -2061,10 +2087,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="56"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
     </row>
     <row r="14" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J14" s="56" t="s">
@@ -2081,50 +2107,50 @@
       <c r="AK14" s="56"/>
     </row>
     <row r="15" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="65" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="58"/>
       <c r="J15" s="56" t="s">
         <v>75</v>
       </c>
       <c r="K15" s="56"/>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="94" t="s">
+      <c r="P15" s="58"/>
+      <c r="Q15" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="66"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="56" t="s">
         <v>76</v>
       </c>
       <c r="K16" s="56"/>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="65" t="s">
+      <c r="P16" s="58"/>
+      <c r="Q16" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="R16" s="66"/>
+      <c r="R16" s="58"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="82" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="83"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="58"/>
       <c r="H17" s="56" t="s">
         <v>136</v>
       </c>
@@ -2133,10 +2159,10 @@
         <v>135</v>
       </c>
       <c r="K17" s="56"/>
-      <c r="Q17" s="68" t="s">
+      <c r="Q17" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="R17" s="68"/>
+      <c r="R17" s="73"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="56" t="s">
@@ -2153,10 +2179,10 @@
         <v>54</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2164,98 +2190,98 @@
         <v>49</v>
       </c>
       <c r="C21" s="87"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="O21" s="57" t="s">
+      <c r="E21" s="58"/>
+      <c r="O21" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="61"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="64"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="65" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="66"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="69" t="s">
+      <c r="P24" s="58"/>
+      <c r="Q24" s="96" t="s">
         <v>149</v>
       </c>
       <c r="R24" s="56"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="65" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="65" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="O25" s="65" t="s">
+      <c r="G25" s="58"/>
+      <c r="O25" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="66"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="72" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="59"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="61"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="64"/>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="96"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="30" t="s">
         <v>46</v>
       </c>
@@ -2310,72 +2336,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="T3:AE4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B3:M4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O21:R22"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="O34:P34"/>
@@ -2392,6 +2352,72 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="N27:S28"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O21:R22"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B3:M4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="T3:AE4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2418,20 +2444,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2464,7 +2490,7 @@
       <c r="J6" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="73"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -2494,7 +2520,7 @@
       <c r="J8" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="75"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
@@ -2524,7 +2550,7 @@
       <c r="J10" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="96"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -2631,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E59B741-2061-4745-830D-5CC374750031}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,6 +2783,42 @@
       </c>
       <c r="E14" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
